--- a/data/trans_orig/DUR_SUEÑO_FINDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_FINDE-Estudios-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Promedio de horas de sueño/finde</t>
+          <t>Promedio de horas de sueño/finde (tasa de respuesta: 98,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DUR_SUEÑO_FINDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_FINDE-Estudios-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,63</t>
+          <t>7,2; 7,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,42</t>
+          <t>7,11; 7,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,41</t>
+          <t>6,97; 7,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,45</t>
+          <t>7,11; 7,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,7</t>
+          <t>7,59; 7,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 8,81</t>
+          <t>7,42; 8,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,53</t>
+          <t>7,43; 7,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 7,37</t>
+          <t>6,68; 7,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,58</t>
+          <t>7,53; 7,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 8,25</t>
+          <t>7,22; 8,32</t>
         </is>
       </c>
     </row>
@@ -761,27 +761,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,74</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7,36</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,76</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>7,75</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,69</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,39</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 7,93</t>
+          <t>7,61; 7,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,46</t>
+          <t>7,26; 7,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 7,79</t>
+          <t>7,64; 7,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,51</t>
+          <t>7,29; 7,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 7,8</t>
+          <t>7,67; 7,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,45</t>
+          <t>7,3; 7,46</t>
         </is>
       </c>
     </row>
@@ -841,27 +841,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,68</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,61</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,72</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,47</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,54</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 7,68</t>
+          <t>7,6; 7,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 8,58</t>
+          <t>7,39; 8,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 7,54</t>
+          <t>7,49; 7,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,34</t>
+          <t>6,87; 7,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 7,58</t>
+          <t>7,56; 7,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,95</t>
+          <t>7,24; 7,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DUR_SUEÑO_FINDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_FINDE-Estudios-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>7,41</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7,22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>7,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,18</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,28</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7,15; 7,45</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>7,2; 7,62</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,11; 7,43</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>7,06; 7,26</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>6,97; 7,41</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 7,29</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>7,13; 7,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>7,11; 7,44</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,13; 7,3</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,45</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>7,69</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,91</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>7,37</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,54</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,14</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,41</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,61</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,52</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>7,37; 7,54</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>7,59; 7,78</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,42; 8,98</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>7,3; 7,44</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>7,43; 7,64</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,68; 7,37</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>7,36; 7,46</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>7,53; 7,68</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 8,32</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,37</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>7,74</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,36</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,76</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,39</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>7,75</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,37</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>7,26; 7,47</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>7,61; 7,87</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,26; 7,47</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>7,28; 7,49</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>7,64; 7,89</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,29; 7,5</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>7,3; 7,46</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7,67; 7,84</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,3; 7,46</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,41</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>7,68</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,72</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>7,33</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,56</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,37</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,61</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,35; 7,47</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>7,6; 7,75</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 8,42</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>7,28; 7,39</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>7,49; 7,63</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,87; 7,34</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>7,33; 7,41</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>7,56; 7,66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,24; 7,9</t>
         </is>
       </c>
     </row>
